--- a/Database_2_web_app.xlsx
+++ b/Database_2_web_app.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\CyberSOFONET MW\Audit Recom Tracking Tool\Audit_Recommendations_Tracking_Tool_Project\Tool\Web_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34212E0-ADEC-4643-8BFA-4648F59A4EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB288DC-99D6-4D5B-81DF-5A58F16F2BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="772" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="17" r:id="rId1"/>
@@ -772,10 +772,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>60%</c:v>
+                  <c:v>67%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40%</c:v>
+                  <c:v>33%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -835,10 +835,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>0.33333333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1035,10 +1035,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1438,10 +1438,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1616,9 +1616,12 @@
             <c:strRef>
               <c:f>Summary!$B$8:$B$1400</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>HM Treasury</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ministry of Health and Medical Services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1633,7 +1636,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1687,9 +1690,12 @@
             <c:strRef>
               <c:f>Summary!$B$8:$B$1400</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>HM Treasury</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ministry of Health and Medical Services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1704,7 +1710,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1758,9 +1764,12 @@
             <c:strRef>
               <c:f>Summary!$B$8:$B$1400</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>HM Treasury</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ministry of Health and Medical Services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1829,9 +1838,12 @@
             <c:strRef>
               <c:f>Summary!$B$8:$B$1400</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>HM Treasury</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ministry of Health and Medical Services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1900,9 +1912,12 @@
             <c:strRef>
               <c:f>Summary!$B$8:$B$1400</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>HM Treasury</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ministry of Health and Medical Services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2254,9 +2269,12 @@
             <c:strRef>
               <c:f>Summary!$B$8:$B$14000</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>HM Treasury</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ministry of Health and Medical Services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2271,7 +2289,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2325,9 +2343,12 @@
             <c:strRef>
               <c:f>Summary!$B$8:$B$14000</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>HM Treasury</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ministry of Health and Medical Services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2342,7 +2363,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2685,9 +2706,12 @@
             <c:strRef>
               <c:f>Summary!$B$8:$B$14000</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>HM Treasury</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ministry of Health and Medical Services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2702,7 +2726,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2756,9 +2780,12 @@
             <c:strRef>
               <c:f>Summary!$B$8:$B$14000</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>HM Treasury</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ministry of Health and Medical Services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3123,9 +3150,12 @@
               </c:extLst>
               <c:f>(Summary!$B$8:$B$14,Summary!$B$20:$B$1900)</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>HM Treasury</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ministry of Health and Medical Services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3147,7 +3177,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3208,9 +3238,12 @@
               </c:extLst>
               <c:f>(Summary!$B$8:$B$14,Summary!$B$20:$B$1900)</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>HM Treasury</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ministry of Health and Medical Services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10920,7 +10953,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>60%</a:t>
+            <a:t>67%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1600">
             <a:solidFill>
@@ -10979,7 +11012,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>20%</a:t>
+            <a:t>17%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2000">
             <a:solidFill>
@@ -11135,7 +11168,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>20%</a:t>
+            <a:t>17%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2000">
             <a:solidFill>
@@ -14349,6 +14382,9 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5">
+        <row r="1">
+          <cell r="B1"/>
+        </row>
         <row r="7">
           <cell r="B7" t="str">
             <v>RP001</v>
@@ -14430,8 +14466,8 @@
           <cell r="M8" t="str">
             <v>Fully Implemented</v>
           </cell>
-          <cell r="N8">
-            <v>0</v>
+          <cell r="N8" t="str">
+            <v>I went all fine</v>
           </cell>
           <cell r="O8" t="str">
             <v>Yes</v>
@@ -14474,8 +14510,8 @@
           <cell r="M9" t="str">
             <v>Fully Implemented</v>
           </cell>
-          <cell r="N9">
-            <v>0</v>
+          <cell r="N9" t="str">
+            <v>I went all fine</v>
           </cell>
           <cell r="O9" t="str">
             <v>Yes</v>
@@ -14518,8 +14554,8 @@
           <cell r="M10" t="str">
             <v>Ongoing</v>
           </cell>
-          <cell r="N10">
-            <v>0</v>
+          <cell r="N10" t="str">
+            <v>Lack of funds</v>
           </cell>
           <cell r="O10" t="str">
             <v>No</v>
@@ -14650,8 +14686,8 @@
           <cell r="M13" t="str">
             <v>Partially Implemented</v>
           </cell>
-          <cell r="N13">
-            <v>0</v>
+          <cell r="N13" t="str">
+            <v>Waiting for the funds</v>
           </cell>
         </row>
         <row r="14">
@@ -14688,8 +14724,8 @@
           <cell r="L14" t="str">
             <v>Accepted</v>
           </cell>
-          <cell r="M14">
-            <v>0</v>
+          <cell r="M14" t="str">
+            <v>Fully Implemented</v>
           </cell>
           <cell r="N14" t="str">
             <v>Successful</v>
@@ -17839,7 +17875,7 @@
   </sheetPr>
   <dimension ref="B1:U39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="P1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -18035,7 +18071,7 @@
     </row>
     <row r="7" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="str" cm="1">
-        <f t="array" ref="B7:O11">_xlfn._xlws.FILTER([1]Database!B7:O54,([1]Database!L7:L54&lt;&gt;0)*([1]Database!M7:M54&lt;&gt;0)*([1]Database!O7:O54="Yes"))</f>
+        <f t="array" ref="B7:O12">_xlfn._xlws.FILTER([1]Database!B7:O54,([1]Database!L7:L54&lt;&gt;0)*([1]Database!M7:M54&lt;&gt;0)*([1]Database!O7:O54="Yes"))</f>
         <v>RP001</v>
       </c>
       <c r="C7" s="12" t="str">
@@ -18078,7 +18114,7 @@
         <v>Yes</v>
       </c>
       <c r="T7" s="2" t="str" cm="1">
-        <f t="array" ref="T7:T8">_xlfn.UNIQUE(Database!$G$7:$G$1189)</f>
+        <f t="array" ref="T7:T9">_xlfn.UNIQUE(Database!$G$7:$G$1189)</f>
         <v>HM Treasury</v>
       </c>
       <c r="U7" s="2">
@@ -18123,18 +18159,18 @@
       <c r="M8" s="12" t="str">
         <v>Fully Implemented</v>
       </c>
-      <c r="N8" s="12">
-        <v>0</v>
+      <c r="N8" s="12" t="str">
+        <v>I went all fine</v>
       </c>
       <c r="O8" s="2" t="str">
         <v>Yes</v>
       </c>
-      <c r="T8" s="2">
-        <v>0</v>
+      <c r="T8" s="2" t="str">
+        <v>Ministry of Health and Medical Services</v>
       </c>
       <c r="U8" s="2">
         <f>COUNTIF(Database!$G$7:$G$1200,T8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -18174,11 +18210,14 @@
       <c r="M9" s="12" t="str">
         <v>Fully Implemented</v>
       </c>
-      <c r="N9" s="12">
-        <v>0</v>
+      <c r="N9" s="12" t="str">
+        <v>I went all fine</v>
       </c>
       <c r="O9" s="2" t="str">
         <v>Yes</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
       </c>
       <c r="U9" s="2">
         <f>COUNTIF(Database!$G$7:$G$1200,T9)</f>
@@ -18282,8 +18321,48 @@
       </c>
     </row>
     <row r="12" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="B12" s="12" t="str">
+        <v>RP008</v>
+      </c>
+      <c r="C12" s="12" t="str">
+        <v xml:space="preserve">    01/01/2020</v>
+      </c>
+      <c r="D12" s="12" t="str">
+        <v>Audit Report on the Performance of the Ministry of Health and Medical Services</v>
+      </c>
+      <c r="E12" s="12" t="str">
+        <v>Ensure that the Ministry of Health and Medical Services develops and implements a system to track the progress of its performance objectives</v>
+      </c>
+      <c r="F12" s="12" t="str">
+        <v>Page 14</v>
+      </c>
+      <c r="G12" s="6" t="str">
+        <v>Ministry of Health and Medical Services</v>
+      </c>
+      <c r="H12" s="12" t="str">
+        <v>Tracking of performance objectives</v>
+      </c>
+      <c r="I12" s="12" t="str">
+        <v>Health</v>
+      </c>
+      <c r="J12" s="12" t="str">
+        <v>Ministry of Finance</v>
+      </c>
+      <c r="K12" s="6">
+        <v>43862</v>
+      </c>
+      <c r="L12" s="12" t="str">
+        <v>Accepted</v>
+      </c>
+      <c r="M12" s="12" t="str">
+        <v>Fully Implemented</v>
+      </c>
+      <c r="N12" s="12" t="str">
+        <v>Successful</v>
+      </c>
+      <c r="O12" s="2" t="str">
+        <v>Yes</v>
+      </c>
       <c r="U12" s="2">
         <f>COUNTIF(Database!$G$7:$G$1200,T12)</f>
         <v>0</v>
@@ -19575,7 +19654,7 @@
       </c>
       <c r="C9" s="22" t="str">
         <f>VLOOKUP($C$6,Database1,2)</f>
-        <v>02-05-2023</v>
+        <v xml:space="preserve">    01/01/2020</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="30" x14ac:dyDescent="0.25">
@@ -19585,17 +19664,17 @@
       </c>
       <c r="C10" s="22" t="str">
         <f>VLOOKUP($C$6,Database1,3)</f>
-        <v>Network Rail's sale of railway arches</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Audit Report on the Performance of the Ministry of Health and Medical Services</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="105" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="str">
         <f>Database!$E$6</f>
         <v>Recommendation Text</v>
       </c>
       <c r="C11" s="22" t="str">
         <f>VLOOKUP($C$6,Database1,4)</f>
-        <v>Before disposing of assets, HM Treasury and the selling department should consider the potential impact of the disposal on wider government policy delivery. Where the impact could be significant, the Department should engage with policy leads in other departments to consider broadening the sale’s objectives.</v>
+        <v>Ensure that the Ministry of Health and Medical Services develops and implements a system to track the progress of its performance objectives</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
@@ -19605,7 +19684,7 @@
       </c>
       <c r="C12" s="22" t="str">
         <f>VLOOKUP($C$6,Database1,5)</f>
-        <v>Page 10, paragraph 17, point a</v>
+        <v>Page 14</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
@@ -19615,7 +19694,7 @@
       </c>
       <c r="C13" s="22" t="str">
         <f>VLOOKUP($C$6,Database1,6)</f>
-        <v>HM Treasury</v>
+        <v>Ministry of Health and Medical Services</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
@@ -19625,7 +19704,7 @@
       </c>
       <c r="C14" s="22" t="str">
         <f>VLOOKUP($C$6,Database1,8)</f>
-        <v>Home Office</v>
+        <v>Health</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
@@ -19635,7 +19714,7 @@
       </c>
       <c r="C15" s="22" t="str">
         <f>VLOOKUP($C$6,Database1,9)</f>
-        <v>National security</v>
+        <v>Ministry of Finance</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
@@ -19643,9 +19722,9 @@
         <f>Database!$K$6</f>
         <v>Actual/Expected Implementation Date</v>
       </c>
-      <c r="C16" s="21" t="str">
+      <c r="C16" s="21">
         <f>VLOOKUP($C$6,Database1,10)</f>
-        <v>August 2021</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -19665,7 +19744,7 @@
       </c>
       <c r="C18" s="21" t="str">
         <f>VLOOKUP($C$6,Database1,12)</f>
-        <v>Not Implemented</v>
+        <v>Fully Implemented</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -19673,9 +19752,9 @@
         <f>Database!$N$6</f>
         <v>Summary of entity response/action</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="21" t="str">
         <f>VLOOKUP($C$6,Database1,13)</f>
-        <v>0</v>
+        <v>Successful</v>
       </c>
     </row>
   </sheetData>
@@ -19701,7 +19780,7 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="B1:P11"/>
+  <dimension ref="B1:P12"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:P8"/>
@@ -19895,7 +19974,7 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="str" cm="1">
-        <f t="array" ref="B9:O11">_xlfn._xlws.FILTER(Database!B7:O1589,(Database!M7:M1589="Fully Implemented"))</f>
+        <f t="array" ref="B9:O12">_xlfn._xlws.FILTER(Database!B7:O1589,(Database!M7:M1589="Fully Implemented"))</f>
         <v>RP001</v>
       </c>
       <c r="C9" s="15" t="str">
@@ -19975,8 +20054,8 @@
       <c r="M10" s="15" t="str">
         <v>Fully Implemented</v>
       </c>
-      <c r="N10" s="15">
-        <v>0</v>
+      <c r="N10" s="15" t="str">
+        <v>I went all fine</v>
       </c>
       <c r="O10" s="15" t="str">
         <v>Yes</v>
@@ -20019,10 +20098,54 @@
       <c r="M11" s="18" t="str">
         <v>Fully Implemented</v>
       </c>
-      <c r="N11" s="18">
-        <v>0</v>
+      <c r="N11" s="18" t="str">
+        <v>I went all fine</v>
       </c>
       <c r="O11" s="15" t="str">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="str">
+        <v>RP008</v>
+      </c>
+      <c r="C12" s="15" t="str">
+        <v xml:space="preserve">    01/01/2020</v>
+      </c>
+      <c r="D12" s="15" t="str">
+        <v>Audit Report on the Performance of the Ministry of Health and Medical Services</v>
+      </c>
+      <c r="E12" s="15" t="str">
+        <v>Ensure that the Ministry of Health and Medical Services develops and implements a system to track the progress of its performance objectives</v>
+      </c>
+      <c r="F12" s="15" t="str">
+        <v>Page 14</v>
+      </c>
+      <c r="G12" s="15" t="str">
+        <v>Ministry of Health and Medical Services</v>
+      </c>
+      <c r="H12" s="15" t="str">
+        <v>Tracking of performance objectives</v>
+      </c>
+      <c r="I12" s="15" t="str">
+        <v>Health</v>
+      </c>
+      <c r="J12" s="15" t="str">
+        <v>Ministry of Finance</v>
+      </c>
+      <c r="K12" s="15">
+        <v>43862</v>
+      </c>
+      <c r="L12" s="15" t="str">
+        <v>Accepted</v>
+      </c>
+      <c r="M12" s="15" t="str">
+        <v>Fully Implemented</v>
+      </c>
+      <c r="N12" s="15" t="str">
+        <v>Successful</v>
+      </c>
+      <c r="O12" s="15" t="str">
         <v>Yes</v>
       </c>
     </row>
@@ -20299,8 +20422,8 @@
   </sheetPr>
   <dimension ref="B1:P47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20419,7 +20542,7 @@
     </row>
     <row r="8" spans="2:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="str" cm="1">
-        <f t="array" ref="B8:C8">_xlfn._xlws.FILTER(Database!T7:U16,Database!T7:T16&lt;&gt;0)</f>
+        <f t="array" ref="B8:C9">_xlfn._xlws.FILTER(Database!T7:U16,Database!T7:T16&lt;&gt;0)</f>
         <v>HM Treasury</v>
       </c>
       <c r="C8" s="13">
@@ -20450,27 +20573,31 @@
       </c>
       <c r="L8" s="2">
         <f>SUM(D8:D470)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" s="2">
         <f>SUM(D8:D470)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8" s="19">
         <f>M8/$M$12</f>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O8" s="20">
         <f>1-N8</f>
-        <v>0.4</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="13" t="str">
+        <v>Ministry of Health and Medical Services</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
       <c r="D9" s="2">
         <f>COUNTIFS(Database!G:G,Summary!B9,Database!M:M,"Fully Implemented")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
         <f>COUNTIFS(Database!G:G,Summary!B9,Database!M:M,"Partially Implemented")</f>
@@ -20486,7 +20613,7 @@
       </c>
       <c r="H9" s="2">
         <f>COUNTIF(Database!$G$7:$G$1200,Summary!B9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>13</v>
@@ -20501,11 +20628,11 @@
       </c>
       <c r="N9" s="19">
         <f t="shared" ref="N9:N12" si="0">M9/$M$12</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O9" s="20">
         <f t="shared" ref="O9:O11" si="1">1-N9</f>
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -20587,11 +20714,11 @@
       </c>
       <c r="N11" s="19">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O11" s="20">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -20619,7 +20746,7 @@
       </c>
       <c r="M12" s="2">
         <f>SUM(M8:M11)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N12" s="19">
         <f t="shared" si="0"/>
